--- a/MedicalRecordAutomation/TestData/Medical_Records.xlsx
+++ b/MedicalRecordAutomation/TestData/Medical_Records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumProjects\AutomationFrameworkSolution\MedicalRecordAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A9561-23F8-4FC1-911F-C909069D4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C333BD-9511-43C8-BF73-9A4BC3936D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5493EA34-ADC0-4E13-975A-F61EABA438EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5493EA34-ADC0-4E13-975A-F61EABA438EE}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidData" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B024C8-217B-4B1E-A82A-2501240767EC}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D564B-E357-4C34-91E7-FC23C62C32FE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
